--- a/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCMarquez\Desktop\Escaletas ajustadas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="7200" firstSheet="1" activeTab="1"/>
   </bookViews>
@@ -794,20 +789,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,7 +864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -904,7 +899,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3088,7 +3083,7 @@
     <col min="4" max="4" width="34.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="61.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="5" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="3" customWidth="1"/>
     <col min="10" max="10" width="30.28515625" style="3" customWidth="1"/>
@@ -3147,25 +3142,25 @@
         <v>21</v>
       </c>
       <c r="N1" s="22"/>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="23" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3188,13 +3183,13 @@
       <c r="N2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3229,7 +3224,7 @@
       <c r="L3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="20" t="s">
         <v>55</v>
       </c>
       <c r="N3" s="6"/>
@@ -3801,7 +3796,7 @@
       <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="21" t="s">
         <v>119</v>
       </c>
       <c r="N13" s="6"/>
@@ -4750,6 +4745,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4764,12 +4765,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I41">

--- a/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
@@ -624,10 +624,10 @@
     <t>Actividad para evaluar los conocimientos sobre el tema El relieve y las aguas</t>
   </si>
   <si>
-    <t>Frormular diez preguntas</t>
-  </si>
-  <si>
     <t>Guillermo 4</t>
+  </si>
+  <si>
+    <t>Formular diez preguntas</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +721,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -795,14 +801,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3071,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3102,50 +3111,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="22"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>116</v>
       </c>
       <c r="Q1" s="23" t="s">
@@ -3165,18 +3174,18 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="15" t="s">
         <v>92</v>
       </c>
@@ -3624,7 +3633,7 @@
         <v>8</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="25" t="s">
         <v>34</v>
       </c>
       <c r="O10" s="7"/>
@@ -3683,7 +3692,7 @@
         <v>8</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="O11" s="7"/>
@@ -4343,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="25" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="7"/>
@@ -4394,11 +4403,11 @@
         <v>8</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="25" t="s">
         <v>53</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>19</v>
@@ -4430,7 +4439,7 @@
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="E26" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I26" s="4"/>
       <c r="K26" s="4"/>
@@ -4745,12 +4754,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4765,6 +4768,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I41">

--- a/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15510" windowHeight="7200" firstSheet="1" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="206">
   <si>
     <t>Asignatura</t>
   </si>
@@ -546,9 +546,6 @@
     <t>Fin de tema</t>
   </si>
   <si>
-    <t>Autoevaluación</t>
-  </si>
-  <si>
     <t>Banco de actividades</t>
   </si>
   <si>
@@ -627,14 +624,35 @@
     <t>Guillermo 4</t>
   </si>
   <si>
-    <t>Formular diez preguntas</t>
+    <t>Evaluación</t>
+  </si>
+  <si>
+    <t>Formular diez preguntas de respuesta libre</t>
+  </si>
+  <si>
+    <r>
+      <t>Ejercicio tipo test con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> video</t>
+    </r>
+  </si>
+  <si>
+    <t>Ejercicio tipo test solo texto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,13 +684,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -694,6 +705,35 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -731,7 +771,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -754,11 +794,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -777,41 +843,71 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3080,27 +3176,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="70" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="61.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="54" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="104.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="21.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="95.5703125" style="3" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="16.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -3111,187 +3207,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="24"/>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="19"/>
+      <c r="O1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="20" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="15" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="23" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="22">
         <v>1</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="16" t="s">
         <v>55</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="16">
+      <c r="Q3" s="12">
         <v>6</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="U3" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="29" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6"/>
@@ -3317,36 +3413,36 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="23" t="s">
         <v>135</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="22" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="6"/>
@@ -3372,36 +3468,36 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="29" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="8">
         <v>4</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="6"/>
@@ -3427,38 +3523,38 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="29" t="s">
         <v>139</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="6"/>
@@ -3484,38 +3580,38 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="31" t="s">
         <v>141</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="30" t="s">
         <v>142</v>
       </c>
       <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="22" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="6"/>
@@ -3541,38 +3637,38 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="31" t="s">
         <v>141</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="29" t="s">
         <v>144</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="6"/>
@@ -3598,156 +3694,160 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="31" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="29" t="s">
         <v>147</v>
       </c>
       <c r="H10" s="8">
         <v>8</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="6"/>
-      <c r="N10" s="25" t="s">
+      <c r="N10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="16">
+      <c r="Q10" s="12">
         <v>6</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="T10" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="U10" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="U10" s="16" t="s">
-        <v>195</v>
-      </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="31" t="s">
         <v>151</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="29" t="s">
         <v>149</v>
       </c>
       <c r="H11" s="8">
         <v>9</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M11" s="6"/>
-      <c r="N11" s="25" t="s">
+      <c r="N11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="P11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="16">
+      <c r="Q11" s="12">
         <v>6</v>
       </c>
-      <c r="R11" s="16" t="s">
+      <c r="R11" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="S11" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="S11" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="T11" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="U11" s="16" t="s">
+      <c r="T11" s="13" t="s">
         <v>195</v>
       </c>
+      <c r="U11" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="29" t="s">
         <v>152</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -3773,39 +3873,39 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="30" t="s">
         <v>155</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="17" t="s">
         <v>119</v>
       </c>
       <c r="N13" s="6"/>
@@ -3815,55 +3915,55 @@
       <c r="P13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="12">
         <v>6</v>
       </c>
-      <c r="R13" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="S13" s="18" t="s">
+      <c r="R13" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="T13" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="U13" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="U13" s="16" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="29" t="s">
         <v>158</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="6"/>
@@ -3888,37 +3988,37 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="30" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="22" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="6"/>
@@ -3944,38 +4044,38 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="29" t="s">
         <v>165</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="6"/>
@@ -4000,37 +4100,37 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="30" t="s">
         <v>168</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="22" t="s">
         <v>7</v>
       </c>
       <c r="M17" s="6"/>
@@ -4056,36 +4156,36 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="29" t="s">
         <v>170</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="6"/>
@@ -4111,38 +4211,38 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="31" t="s">
         <v>127</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="29" t="s">
         <v>172</v>
       </c>
       <c r="H19" s="8">
         <v>17</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="6"/>
@@ -4168,42 +4268,42 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>178</v>
+      <c r="G20" s="29" t="s">
+        <v>177</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="J20" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
@@ -4218,49 +4318,49 @@
         <v>129</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="31"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>182</v>
+      <c r="G21" s="29" t="s">
+        <v>181</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="22" t="s">
         <v>9</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
@@ -4275,37 +4375,37 @@
         <v>160</v>
       </c>
       <c r="T21" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U21" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="29" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="7"/>
@@ -4319,43 +4419,45 @@
       <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="7" t="s">
-        <v>176</v>
+      <c r="E23" s="10"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>205</v>
+      </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
@@ -4363,47 +4465,47 @@
         <v>6</v>
       </c>
       <c r="R23" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="T23" s="19" t="s">
-        <v>196</v>
+      <c r="T23" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="D24" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="31"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="29"/>
       <c r="H24" s="8">
         <v>22</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6" t="s">
+      <c r="J24" s="28"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="25" t="s">
+      <c r="N24" s="18" t="s">
         <v>53</v>
       </c>
       <c r="O24" s="7" t="s">
@@ -4416,16 +4518,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="S24" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="S24" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="T24" s="19" t="s">
-        <v>200</v>
+      <c r="T24" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4438,8 +4540,8 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="E26" s="3" t="s">
-        <v>202</v>
+      <c r="E26" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="I26" s="4"/>
       <c r="K26" s="4"/>
@@ -4754,6 +4856,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4768,12 +4876,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I41">

--- a/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
@@ -824,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -862,15 +862,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,9 +872,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -897,18 +885,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3176,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="F1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,126 +3208,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="19"/>
-      <c r="O1" s="20" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
       <c r="M2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>124</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="19">
         <v>1</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="M3" s="16" t="s">
@@ -3356,38 +3357,38 @@
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="25" t="s">
         <v>128</v>
       </c>
       <c r="H4" s="8">
         <v>2</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="6"/>
@@ -3413,36 +3414,36 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="7"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="20" t="s">
         <v>135</v>
       </c>
       <c r="H5" s="8">
         <v>3</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="J5" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="6"/>
@@ -3468,36 +3469,36 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="25" t="s">
         <v>137</v>
       </c>
       <c r="H6" s="8">
         <v>4</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="6"/>
@@ -3523,38 +3524,38 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="25" t="s">
         <v>139</v>
       </c>
       <c r="H7" s="8">
         <v>5</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="6"/>
@@ -3580,38 +3581,38 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="27" t="s">
         <v>141</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="26" t="s">
         <v>142</v>
       </c>
       <c r="H8" s="8">
         <v>6</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J8" s="28" t="s">
+      <c r="J8" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="M8" s="6"/>
@@ -3637,38 +3638,38 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="27" t="s">
         <v>141</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="25" t="s">
         <v>144</v>
       </c>
       <c r="H9" s="8">
         <v>7</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="6"/>
@@ -3694,38 +3695,38 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="27" t="s">
         <v>146</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="25" t="s">
         <v>147</v>
       </c>
       <c r="H10" s="8">
         <v>8</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="22" t="s">
+      <c r="L10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="6"/>
@@ -3735,7 +3736,7 @@
       <c r="O10" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="12">
@@ -3755,38 +3756,38 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="27" t="s">
         <v>151</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="25" t="s">
         <v>149</v>
       </c>
       <c r="H11" s="8">
         <v>9</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="22" t="s">
+      <c r="L11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M11" s="6"/>
@@ -3796,7 +3797,7 @@
       <c r="O11" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="36" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="12">
@@ -3816,38 +3817,38 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="25" t="s">
         <v>152</v>
       </c>
       <c r="H12" s="8">
         <v>10</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="22" t="s">
+      <c r="L12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -3873,36 +3874,36 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="26" t="s">
         <v>155</v>
       </c>
       <c r="H13" s="8">
         <v>11</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="19" t="s">
         <v>7</v>
       </c>
       <c r="M13" s="17" t="s">
@@ -3932,38 +3933,38 @@
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="25" t="s">
         <v>158</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="6"/>
@@ -3989,36 +3990,36 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="26" t="s">
         <v>163</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="19" t="s">
         <v>6</v>
       </c>
       <c r="M15" s="6"/>
@@ -4044,38 +4045,38 @@
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F16" s="7"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="25" t="s">
         <v>165</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="22" t="s">
+      <c r="L16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M16" s="6"/>
@@ -4101,36 +4102,36 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="26" t="s">
         <v>168</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="22" t="s">
+      <c r="L17" s="19" t="s">
         <v>7</v>
       </c>
       <c r="M17" s="6"/>
@@ -4156,36 +4157,36 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="25" t="s">
         <v>170</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="6"/>
@@ -4211,38 +4212,38 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F19" s="7"/>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="25" t="s">
         <v>172</v>
       </c>
       <c r="H19" s="8">
         <v>17</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="6"/>
@@ -4268,36 +4269,36 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="25" t="s">
         <v>177</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="K20" s="22" t="s">
+      <c r="K20" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="22" t="s">
+      <c r="L20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="6"/>
@@ -4325,36 +4326,36 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="25" t="s">
         <v>181</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="22" t="s">
+      <c r="K21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="22" t="s">
+      <c r="L21" s="19" t="s">
         <v>9</v>
       </c>
       <c r="M21" s="6"/>
@@ -4382,30 +4383,30 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H22" s="8">
         <v>20</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="7"/>
@@ -4419,36 +4420,36 @@
       <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="25" t="s">
         <v>202</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L23" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="6"/>
@@ -4478,30 +4479,30 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="29"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="8">
         <v>22</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22" t="s">
+      <c r="J24" s="24"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="6"/>
@@ -4540,7 +4541,7 @@
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="22" t="s">
         <v>201</v>
       </c>
       <c r="I26" s="4"/>
@@ -4856,12 +4857,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4876,6 +4871,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I41">

--- a/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
+++ b/fuentes/contenidos/grado06/guion10/CS_06_10_CO_Escaleta.xlsx
@@ -489,9 +489,6 @@
     <t>Secuencia de imágenes que presenta características de las aguas oceánicas y continentales</t>
   </si>
   <si>
-    <t>Presentar una secuencia de fotografías con datos curiosos de las aguas oceánicas y continentales. Las del final deben buscar la reflexión acerca de su cuidado.</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Las aguas de la Tierra</t>
   </si>
   <si>
@@ -646,6 +643,9 @@
   </si>
   <si>
     <t>Ejercicio tipo test solo texto</t>
+  </si>
+  <si>
+    <t>Secuencia de fotografías con datos curiosos de las aguas oceánicas y continentales. Las del final deben buscar la reflexión acerca de su cuidado.</t>
   </si>
 </sst>
 </file>
@@ -891,6 +891,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,7 +910,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3177,8 +3177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U121"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="L1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,7 +3197,7 @@
     <col min="12" max="12" width="21.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" style="3" customWidth="1"/>
     <col min="14" max="14" width="15.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="95.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="127.28515625" style="3" customWidth="1"/>
     <col min="16" max="16" width="21.5703125" style="3" customWidth="1"/>
     <col min="17" max="17" width="16.140625" style="3" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -3208,94 +3208,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="31" t="s">
+      <c r="N1" s="33"/>
+      <c r="O1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="T1" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
       <c r="M2" s="11" t="s">
         <v>92</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3322,7 +3322,7 @@
         <v>126</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>20</v>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>19</v>
@@ -3344,16 +3344,16 @@
         <v>6</v>
       </c>
       <c r="R3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3734,25 +3734,25 @@
         <v>34</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="P10" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="P10" s="30" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="12">
         <v>6</v>
       </c>
       <c r="R10" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="T10" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="U10" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3795,25 +3795,25 @@
         <v>32</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="P11" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="P11" s="30" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="12">
         <v>6</v>
       </c>
       <c r="R11" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="S11" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="T11" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="7" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>19</v>
@@ -3920,16 +3920,16 @@
         <v>6</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S13" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="T13" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="U13" s="12" t="s">
         <v>197</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="8">
         <v>12</v>
@@ -3959,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>20</v>
@@ -3980,13 +3980,13 @@
         <v>133</v>
       </c>
       <c r="S14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4000,12 +4000,12 @@
         <v>123</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="7"/>
       <c r="G15" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H15" s="8">
         <v>13</v>
@@ -4014,7 +4014,7 @@
         <v>126</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>19</v>
@@ -4035,13 +4035,13 @@
         <v>133</v>
       </c>
       <c r="S15" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U15" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="T15" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4055,14 +4055,14 @@
         <v>123</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H16" s="8">
         <v>14</v>
@@ -4071,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>19</v>
@@ -4092,13 +4092,13 @@
         <v>133</v>
       </c>
       <c r="S16" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="U16" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="U16" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4112,12 +4112,12 @@
         <v>123</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="7"/>
       <c r="G17" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H17" s="8">
         <v>15</v>
@@ -4126,7 +4126,7 @@
         <v>126</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>19</v>
@@ -4147,13 +4147,13 @@
         <v>133</v>
       </c>
       <c r="S17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="U17" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="T17" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4167,12 +4167,12 @@
         <v>123</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="7"/>
       <c r="G18" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="8">
         <v>16</v>
@@ -4181,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>19</v>
@@ -4202,13 +4202,13 @@
         <v>133</v>
       </c>
       <c r="S18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="U18" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="T18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="U18" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4222,14 +4222,14 @@
         <v>123</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>127</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H19" s="8">
         <v>17</v>
@@ -4238,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>19</v>
@@ -4259,13 +4259,13 @@
         <v>133</v>
       </c>
       <c r="S19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="U19" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="T19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4279,12 +4279,12 @@
         <v>123</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="7"/>
       <c r="G20" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H20" s="8">
         <v>18</v>
@@ -4293,7 +4293,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>19</v>
@@ -4304,7 +4304,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
@@ -4319,7 +4319,7 @@
         <v>129</v>
       </c>
       <c r="T20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U20" s="7" t="s">
         <v>131</v>
@@ -4336,12 +4336,12 @@
         <v>123</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="7"/>
       <c r="G21" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H21" s="8">
         <v>19</v>
@@ -4350,7 +4350,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>19</v>
@@ -4361,7 +4361,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>19</v>
@@ -4373,13 +4373,13 @@
         <v>133</v>
       </c>
       <c r="S21" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="U21" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="T21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="U21" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4393,7 +4393,7 @@
         <v>123</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="9"/>
@@ -4430,12 +4430,12 @@
         <v>123</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="9"/>
       <c r="G23" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H23" s="8">
         <v>21</v>
@@ -4444,7 +4444,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K23" s="19" t="s">
         <v>20</v>
@@ -4457,7 +4457,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
@@ -4466,16 +4466,16 @@
         <v>6</v>
       </c>
       <c r="R23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="S23" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="T23" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4489,7 +4489,7 @@
         <v>123</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="7"/>
@@ -4510,7 +4510,7 @@
         <v>53</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>19</v>
@@ -4519,16 +4519,16 @@
         <v>6</v>
       </c>
       <c r="R24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="S24" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="S24" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="T24" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4542,7 +4542,7 @@
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="E26" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I26" s="4"/>
       <c r="K26" s="4"/>
